--- a/biology/Mycologie/Candida_tropicalis/Candida_tropicalis.xlsx
+++ b/biology/Mycologie/Candida_tropicalis/Candida_tropicalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Candida tropicalis est une espèce de levures de la famille des Debaryomycetaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (22 novembre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (22 novembre 2023) :
 Candida tropicalis var. lambica (F.C. Harrison) Diddens &amp; Lodder, 1942
 Candida tropicalis var. rhagii Diddens &amp; Lodder, 1942
 Candida tropicalis var. tropicalis</t>
@@ -570,11 +586,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Candida tropicalis (Castell.) Berkhout, 1923[1].
-L'espèce a été initialement classée dans le genre Oidium sous le basionyme Oidium tropicale Castell., 1910[1].
-Candida tropicalis a  de très nombreux synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Candida tropicalis (Castell.) Berkhout, 1923.
+L'espèce a été initialement classée dans le genre Oidium sous le basionyme Oidium tropicale Castell., 1910.
+Candida tropicalis a  de très nombreux synonymes :
 Atelosaccharomyces tropicalis (Castell.) Mello, 1918
 Blastodendrion irritans Mattlet, 1926
 Candida albicans var. tropicalis (Castell.) Cif., 1960
